--- a/Сценарий.xlsx
+++ b/Сценарий.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>№ п/п</t>
   </si>
@@ -207,6 +207,28 @@
 3. Заполнить реквизиты формы: "Ф.И.О.", "E-mail", "Телефон", "Сообщение" в соответствии с переданными в тест параметрами
 4. Поставить (убрать) галку в чекбоксе "Согласен на обработку персональных данных..." (???)
 5. Нажать на кнопку "Отправить"</t>
+  </si>
+  <si>
+    <t>Проверка контактных данных</t>
+  </si>
+  <si>
+    <t>test_contacts.py</t>
+  </si>
+  <si>
+    <t>test_Проверка_Контактных_Данных()</t>
+  </si>
+  <si>
+    <t>ТС7</t>
+  </si>
+  <si>
+    <t>1. Открыть страницу 'Контакты'
+2. Проверить наличие блока контактных данных
+3. Проверить адрес, email и телефон</t>
+  </si>
+  <si>
+    <t>1. Страница открывается без ошибок, содержит заголовок  'Контакты'
+2. Блок присутствует
+3. адрес, email и телефон есть и соответствуют реальным данным</t>
   </si>
 </sst>
 </file>
@@ -291,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -330,6 +352,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +816,29 @@
         <v>41</v>
       </c>
     </row>
+    <row r="10" spans="2:8" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Сценарий.xlsx
+++ b/Сценарий.xlsx
@@ -640,7 +640,7 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Сценарий.xlsx
+++ b/Сценарий.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>№ п/п</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>ТС</t>
   </si>
@@ -229,6 +226,21 @@
     <t>1. Страница открывается без ошибок, содержит заголовок  'Контакты'
 2. Блок присутствует
 3. адрес, email и телефон есть и соответствуют реальным данным</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Автоматизирован</t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
+    <t>API</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -356,6 +380,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,206 +670,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" customWidth="1"/>
-    <col min="8" max="8" width="59.28515625" customWidth="1"/>
+    <col min="7" max="7" width="70.85546875" customWidth="1"/>
+    <col min="8" max="8" width="62.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
+      <c r="I4" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
+      <c r="I6" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
+      <c r="I7" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
+      <c r="I8" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>41</v>
+      <c r="I9" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>48</v>
+      <c r="I10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Сценарий.xlsx
+++ b/Сценарий.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>ТС</t>
   </si>
@@ -237,10 +237,41 @@
     <t>Автоматизирован</t>
   </si>
   <si>
-    <t>В работе</t>
-  </si>
-  <si>
-    <t>API</t>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Добавлена проверка на блокирование страницы</t>
+  </si>
+  <si>
+    <t>Из-за блокировки не работает</t>
+  </si>
+  <si>
+    <t>Блокировка главной страницы не мешает работе</t>
+  </si>
+  <si>
+    <t>Тест API: Отправка заявки со страницы "Компания"</t>
+  </si>
+  <si>
+    <t>test_api.py</t>
+  </si>
+  <si>
+    <t>test_API_Отправить_Заявку()</t>
+  </si>
+  <si>
+    <t>ТС8</t>
+  </si>
+  <si>
+    <t>Шаги:
+1. Сформировать POST-запрос с реквизитами "Ф.И.О.", "E-mail", "Телефон", "Сообщение", используя куки из файла "test_api_cookies.txt"
+2. Отправить запрос и получить ответ.
+3. В случае, если ответ 'Your are robot!', отправить запрос через интерфейс и получить актуальные куки и записать куки в файл. Повторить пункт 1.
+4. Проверить корректность ответа: статус-код и текст ответного сообщения.</t>
+  </si>
+  <si>
+    <t>1. В переменные data и headers занесены значения данных и заголовка запроса
+2. Ответ получен, есть статус-код и текст ответного сообщения
+3. Запрос через форму отправлен, ответ получен, куки найдены
+4. статус-код и текст ответного сообщения соответствуют ожидаемым</t>
   </si>
 </sst>
 </file>
@@ -256,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -385,9 +410,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,10 +709,11 @@
     <col min="7" max="7" width="70.85546875" customWidth="1"/>
     <col min="8" max="8" width="62.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
@@ -715,8 +738,11 @@
       <c r="I3" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -741,8 +767,11 @@
       <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -767,8 +796,11 @@
       <c r="I5" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -793,8 +825,11 @@
       <c r="I6" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -819,8 +854,11 @@
       <c r="I7" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -845,8 +883,11 @@
       <c r="I8" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -871,8 +912,11 @@
       <c r="I9" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -897,21 +941,37 @@
       <c r="I10" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
